--- a/documents/Published/Thermometer/ThermometerByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Thermometer/ThermometerByMAQSoftwareChecklist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE2EF9-4757-44A9-A6D8-6CC91ECF9C80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BVTs" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>S no</t>
   </si>
@@ -426,6 +427,12 @@
   </si>
   <si>
     <t>Update display unit and decimal value for legend value</t>
+  </si>
+  <si>
+    <t>Visual should be rendered.</t>
+  </si>
+  <si>
+    <t>1. Drag same column in all field.</t>
   </si>
 </sst>
 </file>
@@ -573,48 +580,50 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,13 +1057,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1112,7 +1121,7 @@
       <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1120,63 +1129,76 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C18" s="20" t="s">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="21"/>
-      <c r="E21" s="20"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BAAB3-E626-427F-9685-DFE372DAA2D9}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1287,7 +1309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1298,7 +1320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1309,7 +1331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1320,7 +1342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1342,7 +1364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1353,7 +1375,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1364,7 +1386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1376,29 +1398,29 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -1411,44 +1433,44 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="19" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>19</v>
       </c>
@@ -1459,7 +1481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -1469,6 +1491,14 @@
       <c r="C27" s="7" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
